--- a/doc/processos.xlsx
+++ b/doc/processos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuri\Documents\GitHub\ISGenerateApp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A02FD9-466B-4172-8D40-0504A2720AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A940BDF-F35E-4F7A-87F9-B56320BF8FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="114">
   <si>
     <t>dependente</t>
   </si>
@@ -349,7 +349,19 @@
     <t>28/08/2025</t>
   </si>
   <si>
-    <t>2024008348441</t>
+    <t>07/08/2026</t>
+  </si>
+  <si>
+    <t>12/08/2026</t>
+  </si>
+  <si>
+    <t>28/08/2026</t>
+  </si>
+  <si>
+    <t>2022111012772</t>
+  </si>
+  <si>
+    <t>202211101277</t>
   </si>
 </sst>
 </file>
@@ -728,13 +740,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1565,7 +1582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1617,7 +1634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1669,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1695,7 +1712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1721,7 +1738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1747,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1773,7 +1790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1799,7 +1816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1851,7 +1868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1902,8 +1919,9 @@
       <c r="H45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2011,11 +2029,11 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
@@ -2032,6 +2050,35 @@
       <c r="H50" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
@@ -2039,5 +2086,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>